--- a/akti_enrollments.xlsx
+++ b/akti_enrollments.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,38 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chikukkupui</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mein nhi ptau ga</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mein nhi ptau ga</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cyb</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
